--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H2">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I2">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J2">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>5371.946512370588</v>
+        <v>6455.425719279657</v>
       </c>
       <c r="R2">
-        <v>5371.946512370588</v>
+        <v>58098.83147351691</v>
       </c>
       <c r="S2">
-        <v>0.08882903273253612</v>
+        <v>0.09622089324859139</v>
       </c>
       <c r="T2">
-        <v>0.08882903273253612</v>
+        <v>0.1077344138132275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H3">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I3">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J3">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>6016.402831300123</v>
+        <v>6908.235341228552</v>
       </c>
       <c r="R3">
-        <v>6016.402831300123</v>
+        <v>62174.11807105697</v>
       </c>
       <c r="S3">
-        <v>0.0994855854954971</v>
+        <v>0.1029702151663319</v>
       </c>
       <c r="T3">
-        <v>0.0994855854954971</v>
+        <v>0.1152913405460313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H4">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I4">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J4">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>3095.276573083388</v>
+        <v>3468.850651236278</v>
       </c>
       <c r="R4">
-        <v>3095.276573083388</v>
+        <v>31219.6558611265</v>
       </c>
       <c r="S4">
-        <v>0.05118264364574687</v>
+        <v>0.05170470898783074</v>
       </c>
       <c r="T4">
-        <v>0.05118264364574687</v>
+        <v>0.05789154856207913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H5">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I5">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J5">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>3682.508724154436</v>
+        <v>3963.184677705403</v>
       </c>
       <c r="R5">
-        <v>3682.508724154436</v>
+        <v>35668.66209934862</v>
       </c>
       <c r="S5">
-        <v>0.06089295327912938</v>
+        <v>0.05907296999158988</v>
       </c>
       <c r="T5">
-        <v>0.06089295327912938</v>
+        <v>0.06614147488537768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H6">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I6">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J6">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>7266.488949690904</v>
+        <v>7904.987573898047</v>
       </c>
       <c r="R6">
-        <v>7266.488949690904</v>
+        <v>47429.92544338828</v>
       </c>
       <c r="S6">
-        <v>0.1201566663547928</v>
+        <v>0.1178272353452719</v>
       </c>
       <c r="T6">
-        <v>0.1201566663547928</v>
+        <v>0.08795073989014268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H7">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J7">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>1645.082605929297</v>
+        <v>1942.200036638322</v>
       </c>
       <c r="R7">
-        <v>1645.082605929297</v>
+        <v>17479.8003297449</v>
       </c>
       <c r="S7">
-        <v>0.02720263433623301</v>
+        <v>0.02894932581048113</v>
       </c>
       <c r="T7">
-        <v>0.02720263433623301</v>
+        <v>0.03241332044613895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H8">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J8">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>1842.438234491643</v>
+        <v>2078.433788304426</v>
       </c>
       <c r="R8">
-        <v>1842.438234491643</v>
+        <v>18705.90409473984</v>
       </c>
       <c r="S8">
-        <v>0.03046605282879329</v>
+        <v>0.03097994839773663</v>
       </c>
       <c r="T8">
-        <v>0.03046605282879329</v>
+        <v>0.03468692160206122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H9">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J9">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>947.8846520891511</v>
+        <v>1043.649505841692</v>
       </c>
       <c r="R9">
-        <v>947.8846520891511</v>
+        <v>9392.845552575231</v>
       </c>
       <c r="S9">
-        <v>0.01567396037790021</v>
+        <v>0.01555604418011092</v>
       </c>
       <c r="T9">
-        <v>0.01567396037790021</v>
+        <v>0.01741743652978874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H10">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J10">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>1127.716188971509</v>
+        <v>1192.376422712953</v>
       </c>
       <c r="R10">
-        <v>1127.716188971509</v>
+        <v>10731.38780441658</v>
       </c>
       <c r="S10">
-        <v>0.01864760530144506</v>
+        <v>0.01777288276113925</v>
       </c>
       <c r="T10">
-        <v>0.01864760530144506</v>
+        <v>0.01989953575982401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H11">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J11">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>2225.25941942761</v>
+        <v>2378.319854226976</v>
       </c>
       <c r="R11">
-        <v>2225.25941942761</v>
+        <v>14269.91912536186</v>
       </c>
       <c r="S11">
-        <v>0.0367962788444613</v>
+        <v>0.03544987902519237</v>
       </c>
       <c r="T11">
-        <v>0.0367962788444613</v>
+        <v>0.0264611410099323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H12">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I12">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J12">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>1847.314242637046</v>
+        <v>2107.681961166115</v>
       </c>
       <c r="R12">
-        <v>1847.314242637046</v>
+        <v>18969.13765049503</v>
       </c>
       <c r="S12">
-        <v>0.03054668116084289</v>
+        <v>0.0314159049776777</v>
       </c>
       <c r="T12">
-        <v>0.03054668116084289</v>
+        <v>0.03517504351615144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H13">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I13">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J13">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>2068.930994400013</v>
+        <v>2255.52328310617</v>
       </c>
       <c r="R13">
-        <v>2068.930994400013</v>
+        <v>20299.70954795553</v>
       </c>
       <c r="S13">
-        <v>0.03421127492608195</v>
+        <v>0.03361954338585259</v>
       </c>
       <c r="T13">
-        <v>0.03421127492608195</v>
+        <v>0.0376423630778986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H14">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I14">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J14">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>1064.409052694468</v>
+        <v>1132.571926550783</v>
       </c>
       <c r="R14">
-        <v>1064.409052694468</v>
+        <v>10193.14733895704</v>
       </c>
       <c r="S14">
-        <v>0.01760077587609496</v>
+        <v>0.01688147105705598</v>
       </c>
       <c r="T14">
-        <v>0.01760077587609496</v>
+        <v>0.01890146024666547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H15">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I15">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J15">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>1266.347458802913</v>
+        <v>1293.970873062997</v>
       </c>
       <c r="R15">
-        <v>1266.347458802913</v>
+        <v>11645.73785756697</v>
       </c>
       <c r="S15">
-        <v>0.02093997392001729</v>
+        <v>0.01928719168310322</v>
       </c>
       <c r="T15">
-        <v>0.02093997392001729</v>
+        <v>0.0215950426142287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H16">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I16">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J16">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>2498.81276736783</v>
+        <v>2580.96064260908</v>
       </c>
       <c r="R16">
-        <v>2498.81276736783</v>
+        <v>15485.76385565448</v>
       </c>
       <c r="S16">
-        <v>0.04131968190558998</v>
+        <v>0.03847032701958127</v>
       </c>
       <c r="T16">
-        <v>0.04131968190558998</v>
+        <v>0.02871571852868473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H17">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I17">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J17">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>3238.858684803326</v>
+        <v>3833.97162323426</v>
       </c>
       <c r="R17">
-        <v>3238.858684803326</v>
+        <v>34505.74460910834</v>
       </c>
       <c r="S17">
-        <v>0.0535568780266005</v>
+        <v>0.05714699391173816</v>
       </c>
       <c r="T17">
-        <v>0.0535568780266005</v>
+        <v>0.06398504194263775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H18">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I18">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J18">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>3627.414851685226</v>
+        <v>4102.901871489556</v>
       </c>
       <c r="R18">
-        <v>3627.414851685226</v>
+        <v>36926.116843406</v>
       </c>
       <c r="S18">
-        <v>0.0599819361292639</v>
+        <v>0.06115551477991375</v>
       </c>
       <c r="T18">
-        <v>0.0599819361292639</v>
+        <v>0.06847321110643119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H19">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I19">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J19">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>1866.206855841423</v>
+        <v>2060.201068127483</v>
       </c>
       <c r="R19">
-        <v>1866.206855841423</v>
+        <v>18541.80961314735</v>
       </c>
       <c r="S19">
-        <v>0.03085908422607634</v>
+        <v>0.03070818187170605</v>
       </c>
       <c r="T19">
-        <v>0.03085908422607634</v>
+        <v>0.03438263626041178</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H20">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I20">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J20">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>2220.261377440314</v>
+        <v>2353.793266736694</v>
       </c>
       <c r="R20">
-        <v>2220.261377440314</v>
+        <v>21184.13940063024</v>
       </c>
       <c r="S20">
-        <v>0.03671363259430491</v>
+        <v>0.03508429970335052</v>
       </c>
       <c r="T20">
-        <v>0.03671363259430491</v>
+        <v>0.03928238800301714</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H21">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I21">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J21">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>4381.117866407788</v>
+        <v>4694.887581128652</v>
       </c>
       <c r="R21">
-        <v>4381.117866407788</v>
+        <v>28169.32548677191</v>
       </c>
       <c r="S21">
-        <v>0.07244496226164006</v>
+        <v>0.06997931606721773</v>
       </c>
       <c r="T21">
-        <v>0.07244496226164006</v>
+        <v>0.05223522903751913</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H22">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I22">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J22">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>670.514152348355</v>
+        <v>750.6826418874641</v>
       </c>
       <c r="R22">
-        <v>670.514152348355</v>
+        <v>4504.095851324785</v>
       </c>
       <c r="S22">
-        <v>0.01108743794254515</v>
+        <v>0.01118924723010899</v>
       </c>
       <c r="T22">
-        <v>0.01108743794254515</v>
+        <v>0.008352080652814066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H23">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I23">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J23">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>750.9537251209977</v>
+        <v>803.33855306331</v>
       </c>
       <c r="R23">
-        <v>750.9537251209977</v>
+        <v>4820.031318379861</v>
       </c>
       <c r="S23">
-        <v>0.01241756463430536</v>
+        <v>0.01197410620432452</v>
       </c>
       <c r="T23">
-        <v>0.01241756463430536</v>
+        <v>0.008937929309021583</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H24">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I24">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J24">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>386.3453857750462</v>
+        <v>403.3825319073881</v>
       </c>
       <c r="R24">
-        <v>386.3453857750462</v>
+        <v>2420.295191444328</v>
       </c>
       <c r="S24">
-        <v>0.006388501233220838</v>
+        <v>0.00601258990945967</v>
       </c>
       <c r="T24">
-        <v>0.006388501233220838</v>
+        <v>0.004488026300909076</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H25">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I25">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J25">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>459.6423679956209</v>
+        <v>460.8671950577092</v>
       </c>
       <c r="R25">
-        <v>459.6423679956209</v>
+        <v>2765.203170346255</v>
       </c>
       <c r="S25">
-        <v>0.007600520008514701</v>
+        <v>0.006869423506026171</v>
       </c>
       <c r="T25">
-        <v>0.007600520008514701</v>
+        <v>0.005127599558822912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H26">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I26">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J26">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>906.9866327653722</v>
+        <v>919.2479650627187</v>
       </c>
       <c r="R26">
-        <v>906.9866327653722</v>
+        <v>3676.991860250875</v>
       </c>
       <c r="S26">
-        <v>0.01499768195836608</v>
+        <v>0.01370178577860775</v>
       </c>
       <c r="T26">
-        <v>0.01499768195836608</v>
+        <v>0.006818356800182944</v>
       </c>
     </row>
   </sheetData>
